--- a/model_paper/study_areas_pretty.xlsx
+++ b/model_paper/study_areas_pretty.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B7C7F-7A16-4526-9362-98C294A58D8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F4D56-3B3E-4209-AFDD-ABD5229A65EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -371,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -431,12 +431,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -542,20 +579,29 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,29 +612,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,1068 +915,1215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="A1:N15"/>
+      <selection activeCell="Q15" sqref="I1:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.73046875" customWidth="1"/>
-    <col min="17" max="23" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="7.1328125" customWidth="1"/>
-    <col min="27" max="27" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="7.1328125" customWidth="1"/>
+    <col min="24" max="24" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+    </row>
+    <row r="2" spans="1:34" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>26</v>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="40" t="s">
+      <c r="L2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="M2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="N2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="O2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="P2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="Q2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="W2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="AB2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="AF2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="5">
+        <v>79.98</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10.379604695999999</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G9" si="0">F3/E3</f>
+        <v>0.12977750307576894</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0.93875275825928006</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.97086140299270385</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0.98181830318540619</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.99144889973947037</v>
+      </c>
+      <c r="P3" s="39">
+        <f>N3-L3</f>
+        <v>4.3065544926126131E-2</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>O3-M3</f>
+        <v>2.058749674676652E-2</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="W3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="5">
-        <v>79.98</v>
-      </c>
-      <c r="G3" s="5">
-        <v>10.379604695999999</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H9" si="0">G3/F3</f>
-        <v>0.12977750307576894</v>
-      </c>
-      <c r="I3" s="35">
-        <v>0.93875275825928006</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.97086140299270385</v>
-      </c>
-      <c r="K3" s="35">
-        <v>0.98181830318540619</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.99144889973947037</v>
-      </c>
-      <c r="M3" s="51">
-        <f>K3-I3</f>
-        <v>4.3065544926126131E-2</v>
-      </c>
-      <c r="N3" s="7">
-        <f>L3-J3</f>
-        <v>2.058749674676652E-2</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="27" t="s">
+      <c r="AC3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="27" t="s">
+      <c r="AE3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="AF3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AG3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="42"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AH3" s="45"/>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>52</v>
       </c>
+      <c r="C4" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="5">
+        <v>74.67</v>
+      </c>
       <c r="F4" s="5">
-        <v>74.67</v>
-      </c>
-      <c r="G4" s="5">
         <v>8.0621626640000006</v>
       </c>
-      <c r="H4" s="7">
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0.1079705727065756</v>
       </c>
-      <c r="I4" s="35">
+      <c r="H4" s="7"/>
+      <c r="I4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="35">
         <v>0.85527191909436884</v>
       </c>
-      <c r="J4" s="7">
+      <c r="M4" s="7">
         <v>0.95217782856858935</v>
       </c>
-      <c r="K4" s="35">
+      <c r="N4" s="35">
         <v>0.96881252618660918</v>
       </c>
-      <c r="L4" s="7">
+      <c r="O4" s="7">
         <v>0.99056138113538594</v>
       </c>
-      <c r="M4" s="51">
-        <f t="shared" ref="M4:M10" si="1">K4-I4</f>
+      <c r="P4" s="39">
+        <f t="shared" ref="P4:P10" si="1">N4-L4</f>
         <v>0.11354060709224034</v>
       </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:N10" si="2">L4-J4</f>
+      <c r="Q4" s="7">
+        <f t="shared" ref="Q4:Q10" si="2">O4-M4</f>
         <v>3.8383552566796597E-2</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="W4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="X4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="Y4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="Z4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="29" t="s">
+      <c r="AA4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="AB4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="AC4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="AD4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="AE4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="AF4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="AG4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="43"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AH4" s="46"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>32</v>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="20" t="s">
         <v>74</v>
       </c>
+      <c r="E5" s="5">
+        <v>50.654502000000001</v>
+      </c>
       <c r="F5" s="5">
-        <v>50.654502000000001</v>
-      </c>
-      <c r="G5" s="5">
         <v>8.753083504000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0.17279971489997081</v>
       </c>
-      <c r="I5" s="35">
+      <c r="H5" s="7"/>
+      <c r="I5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="35">
         <v>0.9782834573146677</v>
       </c>
-      <c r="J5" s="7">
+      <c r="M5" s="7">
         <v>0.99636619663442094</v>
       </c>
-      <c r="K5" s="35">
+      <c r="N5" s="35">
         <v>0.95288993652882892</v>
       </c>
-      <c r="L5" s="7">
+      <c r="O5" s="7">
         <v>0.99177039587785087</v>
       </c>
-      <c r="M5" s="51">
+      <c r="P5" s="39">
         <f t="shared" si="1"/>
         <v>-2.5393520785838786E-2</v>
       </c>
-      <c r="N5" s="7">
+      <c r="Q5" s="7">
         <f t="shared" si="2"/>
         <v>-4.5958007565700676E-3</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="W5" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="X5" s="29" t="s">
         <v>44</v>
       </c>
       <c r="Y5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="29" t="s">
+      <c r="AE5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="44"/>
-    </row>
-    <row r="6" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AH5" s="47"/>
+    </row>
+    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="21" t="s">
         <v>75</v>
       </c>
+      <c r="C6" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="20" t="s">
         <v>74</v>
       </c>
+      <c r="E6" s="5">
+        <v>161.12558999999999</v>
+      </c>
       <c r="F6" s="5">
-        <v>161.12558999999999</v>
-      </c>
-      <c r="G6" s="5">
         <v>10.272564488</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>6.3755015500641457E-2</v>
       </c>
-      <c r="I6" s="35">
+      <c r="H6" s="7"/>
+      <c r="I6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="35">
         <v>0.90011876866415641</v>
       </c>
-      <c r="J6" s="7">
+      <c r="M6" s="7">
         <v>0.9562475789063356</v>
       </c>
-      <c r="K6" s="35">
+      <c r="N6" s="35">
         <v>0.96103183180158014</v>
       </c>
-      <c r="L6" s="7">
+      <c r="O6" s="7">
         <v>0.98345219889533231</v>
       </c>
-      <c r="M6" s="51">
+      <c r="P6" s="39">
         <f t="shared" si="1"/>
         <v>6.0913063137423729E-2</v>
       </c>
-      <c r="N6" s="7">
+      <c r="Q6" s="7">
         <f t="shared" si="2"/>
         <v>2.7204619988996703E-2</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="W6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="X6" s="31">
         <v>25.325230000000001</v>
       </c>
-      <c r="R6" s="31">
+      <c r="Y6" s="31">
         <v>50.654502000000001</v>
       </c>
-      <c r="S6" s="31">
+      <c r="Z6" s="31">
         <v>66.101353000000003</v>
       </c>
-      <c r="T6" s="31">
+      <c r="AA6" s="31">
         <v>161.12558999999999</v>
       </c>
-      <c r="U6" s="31">
+      <c r="AB6" s="31">
         <v>79.98</v>
       </c>
-      <c r="V6" s="31">
+      <c r="AC6" s="31">
         <v>74.67</v>
       </c>
-      <c r="W6" s="31">
+      <c r="AD6" s="31">
         <v>136.83000000000001</v>
       </c>
-      <c r="X6" s="31">
+      <c r="AE6" s="31">
         <v>61.2</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="AF6" s="31">
         <v>55.5</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="AG6" s="31">
         <v>77.8</v>
       </c>
-      <c r="AA6" s="32">
-        <f>SUM(Q6:Z6)</f>
+      <c r="AH6" s="32">
+        <f>SUM(X6:AG6)</f>
         <v>789.18667500000004</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>28</v>
+      <c r="B7" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="20" t="s">
         <v>36</v>
       </c>
+      <c r="E7" s="5">
+        <v>66.101353000000003</v>
+      </c>
       <c r="F7" s="5">
-        <v>66.101353000000003</v>
-      </c>
-      <c r="G7" s="5">
         <v>7.6548092829999996</v>
       </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0.11580412405476782</v>
       </c>
-      <c r="I7" s="35">
+      <c r="H7" s="7"/>
+      <c r="I7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="35">
         <v>0.82291528599831942</v>
       </c>
-      <c r="J7" s="7">
+      <c r="M7" s="7">
         <v>0.94764004959103076</v>
       </c>
-      <c r="K7" s="35">
+      <c r="N7" s="35">
         <v>0.89093631761198533</v>
       </c>
-      <c r="L7" s="7">
+      <c r="O7" s="7">
         <v>0.96962639571491238</v>
       </c>
-      <c r="M7" s="51">
+      <c r="P7" s="39">
         <f t="shared" si="1"/>
         <v>6.8021031613665905E-2</v>
       </c>
-      <c r="N7" s="7">
+      <c r="Q7" s="7">
         <f t="shared" si="2"/>
         <v>2.1986346123881617E-2</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="W7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="X7" s="31">
         <v>1.3013134279999998</v>
       </c>
-      <c r="R7" s="31">
+      <c r="Y7" s="31">
         <v>8.753083504000001</v>
       </c>
-      <c r="S7" s="31">
+      <c r="Z7" s="31">
         <v>7.6548092829999996</v>
       </c>
-      <c r="T7" s="31">
+      <c r="AA7" s="31">
         <v>10.272564488</v>
       </c>
-      <c r="U7" s="31">
+      <c r="AB7" s="31">
         <v>10.379604695999999</v>
       </c>
-      <c r="V7" s="31">
+      <c r="AC7" s="31">
         <v>8.0621626640000006</v>
       </c>
-      <c r="W7" s="31">
+      <c r="AD7" s="31">
         <v>13.182848910000001</v>
       </c>
-      <c r="X7" s="31">
+      <c r="AE7" s="31">
         <v>4</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="AF7" s="31">
         <v>3.2</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="AG7" s="31">
         <v>6.1</v>
       </c>
-      <c r="AA7" s="32">
-        <f>SUM(Q7:Z7)</f>
+      <c r="AH7" s="32">
+        <f>SUM(X7:AG7)</f>
         <v>72.906386972999996</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>28</v>
+      <c r="B8" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="20" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="5">
+        <v>136.83000000000001</v>
+      </c>
       <c r="F8" s="5">
-        <v>136.83000000000001</v>
-      </c>
-      <c r="G8" s="5">
         <v>13.182848910000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>9.6344726375794776E-2</v>
       </c>
-      <c r="I8" s="35">
+      <c r="H8" s="7"/>
+      <c r="I8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="35">
         <v>0.87004186833979424</v>
       </c>
-      <c r="J8" s="7">
+      <c r="M8" s="7">
         <v>0.94261626903519602</v>
       </c>
-      <c r="K8" s="35">
+      <c r="N8" s="35">
         <v>0.88495888975049131</v>
       </c>
-      <c r="L8" s="7">
+      <c r="O8" s="7">
         <v>0.94870415447453615</v>
       </c>
-      <c r="M8" s="51">
+      <c r="P8" s="39">
         <f t="shared" si="1"/>
         <v>1.4917021410697062E-2</v>
       </c>
-      <c r="N8" s="7">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>6.0878854393401349E-3</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="W8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="33">
-        <f t="shared" ref="Q8:AA8" si="3">Q7/Q6</f>
+      <c r="X8" s="33">
+        <f t="shared" ref="X8:AH8" si="3">X7/X6</f>
         <v>5.1384071457593862E-2</v>
       </c>
-      <c r="R8" s="33">
+      <c r="Y8" s="33">
         <f t="shared" si="3"/>
         <v>0.17279971489997081</v>
       </c>
-      <c r="S8" s="33">
+      <c r="Z8" s="33">
         <f t="shared" si="3"/>
         <v>0.11580412405476782</v>
       </c>
-      <c r="T8" s="33">
+      <c r="AA8" s="33">
         <f t="shared" si="3"/>
         <v>6.3755015500641457E-2</v>
       </c>
-      <c r="U8" s="33">
+      <c r="AB8" s="33">
         <f t="shared" si="3"/>
         <v>0.12977750307576894</v>
       </c>
-      <c r="V8" s="33">
+      <c r="AC8" s="33">
         <f t="shared" si="3"/>
         <v>0.1079705727065756</v>
       </c>
-      <c r="W8" s="33">
+      <c r="AD8" s="33">
         <f t="shared" si="3"/>
         <v>9.6344726375794776E-2</v>
       </c>
-      <c r="X8" s="33">
+      <c r="AE8" s="33">
         <f t="shared" si="3"/>
         <v>6.535947712418301E-2</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="AF8" s="33">
         <f t="shared" si="3"/>
         <v>5.7657657657657659E-2</v>
       </c>
-      <c r="Z8" s="33">
+      <c r="AG8" s="33">
         <f t="shared" si="3"/>
         <v>7.8406169665809766E-2</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AH8" s="34">
         <f t="shared" si="3"/>
         <v>9.238167506186036E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="C9" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="20" t="s">
         <v>44</v>
       </c>
+      <c r="E9" s="5">
+        <v>25.325230000000001</v>
+      </c>
       <c r="F9" s="5">
-        <v>25.325230000000001</v>
-      </c>
-      <c r="G9" s="5">
         <v>1.3013134279999998</v>
       </c>
-      <c r="H9" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>5.1384071457593862E-2</v>
       </c>
-      <c r="I9" s="35">
+      <c r="H9" s="7"/>
+      <c r="I9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="35">
         <v>0.94511500125771386</v>
       </c>
-      <c r="J9" s="7">
+      <c r="M9" s="7">
         <v>0.97292131251991076</v>
       </c>
-      <c r="K9" s="35">
+      <c r="N9" s="35">
         <v>0.97190857345359039</v>
       </c>
-      <c r="L9" s="7">
+      <c r="O9" s="7">
         <v>0.98619277776067393</v>
       </c>
-      <c r="M9" s="51">
+      <c r="P9" s="39">
         <f t="shared" si="1"/>
         <v>2.6793572195876525E-2</v>
       </c>
-      <c r="N9" s="7">
+      <c r="Q9" s="7">
         <f t="shared" si="2"/>
         <v>1.3271465240763169E-2</v>
       </c>
-      <c r="P9" s="48" t="s">
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="W9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="X9" s="41">
         <v>0.80537810318818359</v>
       </c>
-      <c r="R9" s="45">
+      <c r="Y9" s="41">
         <v>0.92826913714348602</v>
       </c>
-      <c r="S9" s="45">
+      <c r="Z9" s="41">
         <v>0.9060683445495058</v>
       </c>
-      <c r="T9" s="45">
+      <c r="AA9" s="41">
         <v>0.90865247914043556</v>
       </c>
-      <c r="U9" s="45">
+      <c r="AB9" s="41">
         <v>0.94595956312855456</v>
       </c>
-      <c r="V9" s="45">
+      <c r="AC9" s="41">
         <v>0.94008347122006419</v>
       </c>
-      <c r="W9" s="45">
+      <c r="AD9" s="41">
         <v>0.867452289883756</v>
       </c>
-      <c r="X9" s="45">
+      <c r="AE9" s="41">
         <v>0.79310526891699606</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="AF9" s="41">
         <v>0.87733657269071508</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="AG9" s="41">
         <v>0.94733020249381461</v>
       </c>
-      <c r="AA9" s="34" t="str">
-        <f>_xlfn.CONCAT(ROUND(AVERAGE(Q9:W10)*100,0), "% (Trained)")</f>
+      <c r="AH9" s="34" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(X9:AD10)*100,0), "% (Trained)")</f>
         <v>90% (Trained)</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="6">
+        <f>SUM(E3:E9)</f>
+        <v>594.68667500000004</v>
+      </c>
       <c r="F10" s="6">
         <f>SUM(F3:F9)</f>
-        <v>594.68667500000004</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(G3:G9)</f>
         <v>59.606386972999999</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" ref="H10" si="4">G10/F10</f>
+      <c r="G10" s="8">
+        <f t="shared" ref="G10" si="4">F10/E10</f>
         <v>0.10023158325012074</v>
       </c>
-      <c r="I10" s="36">
-        <f>AVERAGE(I3:I9)</f>
+      <c r="H10" s="8"/>
+      <c r="I10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="36">
+        <f>AVERAGE(L3:L9)</f>
         <v>0.90149986556118578</v>
       </c>
-      <c r="J10" s="8">
-        <f>AVERAGE(J3:J9)</f>
+      <c r="M10" s="8">
+        <f>AVERAGE(M3:M9)</f>
         <v>0.9626900911783125</v>
       </c>
-      <c r="K10" s="36">
-        <f>AVERAGE(K3:K9)</f>
+      <c r="N10" s="36">
+        <f>AVERAGE(N3:N9)</f>
         <v>0.94462233978835586</v>
       </c>
-      <c r="L10" s="8">
-        <f>AVERAGE(L3:L9)</f>
+      <c r="O10" s="8">
+        <f>AVERAGE(O3:O9)</f>
         <v>0.98025088622830892</v>
       </c>
-      <c r="M10" s="52">
+      <c r="P10" s="40">
         <f t="shared" si="1"/>
         <v>4.3122474227170082E-2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="Q10" s="8">
         <f t="shared" si="2"/>
         <v>1.7560795049996414E-2</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="34" t="str">
-        <f>_xlfn.CONCAT(ROUND(AVERAGE(X9:Z10)*100,0), "% (Naive)")</f>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="34" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(AE9:AG10)*100,0), "% (Naive)")</f>
         <v>87% (Naive)</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A11" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>32</v>
+      <c r="B12" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5">
+        <v>61.22</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.0239877120000003</v>
+      </c>
+      <c r="G12" s="7">
+        <f>F12/E12</f>
+        <v>6.5729952825873905E-2</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="K12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5">
-        <v>61.22</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4.0239877120000003</v>
-      </c>
-      <c r="H12" s="7">
-        <f>G12/F12</f>
-        <v>6.5729952825873905E-2</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="L12" s="35">
         <v>0.95147859016390013</v>
       </c>
-      <c r="J12" s="7">
+      <c r="M12" s="7">
         <v>0.97669708977927694</v>
       </c>
-      <c r="K12" s="35">
+      <c r="N12" s="35">
         <v>0.95533607527090736</v>
       </c>
-      <c r="L12" s="7">
+      <c r="O12" s="7">
         <v>0.97846829014910219</v>
       </c>
-      <c r="M12" s="51">
-        <f t="shared" ref="M12" si="5">K12-I12</f>
+      <c r="P12" s="39">
+        <f t="shared" ref="P12:P15" si="5">N12-L12</f>
         <v>3.8574851070072302E-3</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" ref="N12" si="6">L12-J12</f>
+      <c r="Q12" s="7">
+        <f t="shared" ref="Q12:Q15" si="6">O12-M12</f>
         <v>1.7712003698252543E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+    </row>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>65</v>
+      <c r="B13" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5">
+        <v>55.46</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3.1987812839999998</v>
+      </c>
+      <c r="G13" s="7">
+        <f>F13/E13</f>
+        <v>5.7677268012982327E-2</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5">
-        <v>55.46</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3.1987812839999998</v>
-      </c>
-      <c r="H13" s="7">
-        <f>G13/F13</f>
-        <v>5.7677268012982327E-2</v>
-      </c>
-      <c r="I13" s="35">
+      <c r="L13" s="35">
         <v>0.92904096792641677</v>
       </c>
-      <c r="J13" s="7">
+      <c r="M13" s="7">
         <v>0.97962714723579869</v>
       </c>
-      <c r="K13" s="35">
+      <c r="N13" s="35">
         <v>0.9362364711891662</v>
       </c>
-      <c r="L13" s="7">
+      <c r="O13" s="7">
         <v>0.9818220858989376</v>
       </c>
-      <c r="M13" s="51">
-        <f t="shared" ref="M13:M15" si="7">K13-I13</f>
+      <c r="P13" s="39">
+        <f t="shared" si="5"/>
         <v>7.1955032627494253E-3</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" ref="N13:N15" si="8">L13-J13</f>
+      <c r="Q13" s="7">
+        <f t="shared" si="6"/>
         <v>2.1949386631389123E-3</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>66</v>
+      <c r="B14" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5">
+        <v>77.8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.0857419320399995</v>
+      </c>
+      <c r="G14" s="7">
+        <f>F14/E14</f>
+        <v>7.8222904010796915E-2</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="K14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="5">
-        <v>77.8</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6.0857419320399995</v>
-      </c>
-      <c r="H14" s="7">
-        <f>G14/F14</f>
-        <v>7.8222904010796915E-2</v>
-      </c>
-      <c r="I14" s="35">
+      <c r="L14" s="35">
         <v>0.99458525951233445</v>
       </c>
-      <c r="J14" s="7">
+      <c r="M14" s="7">
         <v>0.99762924498477956</v>
       </c>
-      <c r="K14" s="35">
+      <c r="N14" s="35">
         <v>0.99538719465017911</v>
       </c>
-      <c r="L14" s="7">
+      <c r="O14" s="7">
         <v>0.99798100114666788</v>
       </c>
-      <c r="M14" s="51">
-        <f t="shared" si="7"/>
+      <c r="P14" s="39">
+        <f t="shared" si="5"/>
         <v>8.0193513784465598E-4</v>
       </c>
-      <c r="N14" s="7">
-        <f t="shared" si="8"/>
+      <c r="Q14" s="7">
+        <f t="shared" si="6"/>
         <v>3.5175616188831693E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A15" s="47" t="s">
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A15" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="6">
+        <f>SUM(E12:E14)</f>
+        <v>194.48000000000002</v>
+      </c>
       <c r="F15" s="6">
         <f>SUM(F12:F14)</f>
-        <v>194.48000000000002</v>
-      </c>
-      <c r="G15" s="6">
-        <f>SUM(G12:G14)</f>
         <v>13.30851092804</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" ref="H15" si="9">G15/F15</f>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15" si="7">F15/E15</f>
         <v>6.8431257342863011E-2</v>
       </c>
-      <c r="I15" s="36">
-        <f>AVERAGE(I12:I14)</f>
+      <c r="H15" s="8"/>
+      <c r="I15" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="36">
+        <f>AVERAGE(L12:L14)</f>
         <v>0.95836827253421708</v>
       </c>
-      <c r="J15" s="8">
-        <f>AVERAGE(J12:J14)</f>
+      <c r="M15" s="8">
+        <f>AVERAGE(M12:M14)</f>
         <v>0.98465116066661829</v>
       </c>
-      <c r="K15" s="36">
-        <f>AVERAGE(K12:K14)</f>
+      <c r="N15" s="36">
+        <f>AVERAGE(N12:N14)</f>
         <v>0.96231991370341763</v>
       </c>
-      <c r="L15" s="8">
-        <f>AVERAGE(L12:L14)</f>
+      <c r="O15" s="8">
+        <f>AVERAGE(O12:O14)</f>
         <v>0.98609045906490256</v>
       </c>
-      <c r="M15" s="52">
-        <f t="shared" si="7"/>
+      <c r="P15" s="40">
+        <f t="shared" si="5"/>
         <v>3.9516411692005482E-3</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q15" s="8">
+        <f t="shared" si="6"/>
         <v>1.4392983982842722E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="50" t="s">
-        <v>65</v>
-      </c>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="F23" s="39"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E23" s="37"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
     <sortCondition ref="A9"/>
   </sortState>
-  <mergeCells count="16">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
+  <mergeCells count="20">
+    <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Q3:Z3 A8:A9 A4:A6 A3 A7 A12:A14" numberStoredAsText="1"/>
+    <ignoredError sqref="X3:AG3 A8:A9 A4:A6 A3 A7 A12:A13 I3:I8 I12:I14 I9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/model_paper/study_areas_pretty.xlsx
+++ b/model_paper/study_areas_pretty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F4D56-3B3E-4209-AFDD-ABD5229A65EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E92BE6-FE81-4BCD-A159-336D488BEBCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,48 +591,48 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,7 +918,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q15" sqref="I1:Q15"/>
+      <selection activeCell="G15" sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -945,31 +945,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:34" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
@@ -1021,10 +1021,10 @@
       <c r="Q2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
       <c r="W2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1115,10 +1115,10 @@
         <f>O3-M3</f>
         <v>2.058749674676652E-2</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
       <c r="W3" s="26" t="s">
         <v>26</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="AG3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="45"/>
+      <c r="AH3" s="46"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
@@ -1207,10 +1207,10 @@
         <f t="shared" ref="Q4:Q10" si="2">O4-M4</f>
         <v>3.8383552566796597E-2</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
       <c r="W4" s="28" t="s">
         <v>67</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="AG4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="46"/>
+      <c r="AH4" s="47"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
@@ -1299,10 +1299,10 @@
         <f t="shared" si="2"/>
         <v>-4.5958007565700676E-3</v>
       </c>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
       <c r="W5" s="28" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="AG5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="47"/>
+      <c r="AH5" s="48"/>
     </row>
     <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
@@ -1391,10 +1391,10 @@
         <f t="shared" si="2"/>
         <v>2.7204619988996703E-2</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
       <c r="W6" s="28" t="s">
         <v>3</v>
       </c>
@@ -1486,10 +1486,10 @@
         <f t="shared" si="2"/>
         <v>2.1986346123881617E-2</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
       <c r="W7" s="28" t="s">
         <v>47</v>
       </c>
@@ -1581,10 +1581,10 @@
         <f t="shared" si="2"/>
         <v>6.0878854393401349E-3</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="W8" s="28" t="s">
         <v>34</v>
       </c>
@@ -1686,41 +1686,41 @@
         <f t="shared" si="2"/>
         <v>1.3271465240763169E-2</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="W9" s="43" t="s">
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="W9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="49">
         <v>0.80537810318818359</v>
       </c>
-      <c r="Y9" s="41">
+      <c r="Y9" s="49">
         <v>0.92826913714348602</v>
       </c>
-      <c r="Z9" s="41">
+      <c r="Z9" s="49">
         <v>0.9060683445495058</v>
       </c>
-      <c r="AA9" s="41">
+      <c r="AA9" s="49">
         <v>0.90865247914043556</v>
       </c>
-      <c r="AB9" s="41">
+      <c r="AB9" s="49">
         <v>0.94595956312855456</v>
       </c>
-      <c r="AC9" s="41">
+      <c r="AC9" s="49">
         <v>0.94008347122006419</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AD9" s="49">
         <v>0.867452289883756</v>
       </c>
-      <c r="AE9" s="41">
+      <c r="AE9" s="49">
         <v>0.79310526891699606</v>
       </c>
-      <c r="AF9" s="41">
+      <c r="AF9" s="49">
         <v>0.87733657269071508</v>
       </c>
-      <c r="AG9" s="41">
+      <c r="AG9" s="49">
         <v>0.94733020249381461</v>
       </c>
       <c r="AH9" s="34" t="str">
@@ -1729,12 +1729,12 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="6">
         <f>SUM(E3:E9)</f>
         <v>594.68667500000004</v>
@@ -1748,11 +1748,11 @@
         <v>0.10023158325012074</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="36">
         <f>AVERAGE(L3:L9)</f>
         <v>0.90149986556118578</v>
@@ -1777,52 +1777,52 @@
         <f t="shared" si="2"/>
         <v>1.7560795049996414E-2</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
       <c r="AH10" s="34" t="str">
         <f>_xlfn.CONCAT(ROUND(AVERAGE(AE9:AG10)*100,0), "% (Naive)")</f>
         <v>87% (Naive)</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
@@ -1877,10 +1877,10 @@
         <f t="shared" ref="Q12:Q15" si="6">O12-M12</f>
         <v>1.7712003698252543E-3</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
@@ -1935,10 +1935,10 @@
         <f t="shared" si="6"/>
         <v>2.1949386631389123E-3</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
@@ -2005,18 +2005,18 @@
         <f t="shared" si="6"/>
         <v>3.5175616188831693E-4</v>
       </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="6">
         <f>SUM(E12:E14)</f>
         <v>194.48000000000002</v>
@@ -2030,11 +2030,11 @@
         <v>6.8431257342863011E-2</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="36">
         <f>AVERAGE(L12:L14)</f>
         <v>0.95836827253421708</v>
@@ -2059,10 +2059,10 @@
         <f t="shared" si="6"/>
         <v>1.4392983982842722E-3</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="E16" s="4"/>
@@ -2099,6 +2099,16 @@
     <sortCondition ref="A9"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
@@ -2109,21 +2119,11 @@
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="X3:AG3 A8:A9 A4:A6 A3 A7 A12:A13 I3:I8 I12:I14 I9" numberStoredAsText="1"/>
+    <ignoredError sqref="X3:AG3 A8:A9 A4:A6 A3 A7 A12:A14 I3:I8 I12:I14 I9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/model_paper/study_areas_pretty.xlsx
+++ b/model_paper/study_areas_pretty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E92BE6-FE81-4BCD-A159-336D488BEBCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C709C7F-1F31-41F3-9DE8-6DC0CF507A63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,6 +604,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,27 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,12 +918,12 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:G15"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
@@ -945,27 +945,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
       <c r="R1" s="41"/>
       <c r="S1" s="41"/>
       <c r="T1" s="41"/>
@@ -1152,7 +1152,7 @@
       <c r="AG3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="46"/>
+      <c r="AH3" s="53"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
@@ -1244,7 +1244,7 @@
       <c r="AG4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="47"/>
+      <c r="AH4" s="54"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
@@ -1336,7 +1336,7 @@
       <c r="AG5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="48"/>
+      <c r="AH5" s="55"/>
     </row>
     <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
@@ -1690,7 +1690,7 @@
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
       <c r="U9" s="43"/>
-      <c r="W9" s="54" t="s">
+      <c r="W9" s="51" t="s">
         <v>37</v>
       </c>
       <c r="X9" s="49">
@@ -1729,12 +1729,12 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="6">
         <f>SUM(E3:E9)</f>
         <v>594.68667500000004</v>
@@ -1748,11 +1748,11 @@
         <v>0.10023158325012074</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="36">
         <f>AVERAGE(L3:L9)</f>
         <v>0.90149986556118578</v>
@@ -1781,7 +1781,7 @@
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
       <c r="U10" s="44"/>
-      <c r="W10" s="55"/>
+      <c r="W10" s="52"/>
       <c r="X10" s="50"/>
       <c r="Y10" s="50"/>
       <c r="Z10" s="50"/>
@@ -1798,27 +1798,27 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="41"/>
@@ -2011,12 +2011,12 @@
       <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6">
         <f>SUM(E12:E14)</f>
         <v>194.48000000000002</v>
@@ -2030,11 +2030,11 @@
         <v>6.8431257342863011E-2</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="36">
         <f>AVERAGE(L12:L14)</f>
         <v>0.95836827253421708</v>
@@ -2099,16 +2099,6 @@
     <sortCondition ref="A9"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B11:G11"/>
     <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
@@ -2119,6 +2109,16 @@
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/model_paper/study_areas_pretty.xlsx
+++ b/model_paper/study_areas_pretty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C709C7F-1F31-41F3-9DE8-6DC0CF507A63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F44D3-57C9-4BD3-927A-7B80B02C3CEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -300,14 +300,6 @@
   </si>
   <si>
     <t>Cohen's κ
-(general)</t>
-  </si>
-  <si>
-    <t>Accuracy
-(general)</t>
-  </si>
-  <si>
-    <t>Cohen's κ
 (specific)</t>
   </si>
   <si>
@@ -328,6 +320,100 @@
   <si>
     <t>Change in
 κ</t>
+  </si>
+  <si>
+    <t>Accuracy (general/specific/singular)</t>
+  </si>
+  <si>
+    <t>Cohen's κ
+(general/specific/singular)</t>
+  </si>
+  <si>
+    <t>Singular kappa</t>
+  </si>
+  <si>
+    <t>Singularaccuracy</t>
+  </si>
+  <si>
+    <t>General kappa</t>
+  </si>
+  <si>
+    <t>general accuracy</t>
+  </si>
+  <si>
+    <t>0.94 / 0.98 / 0.99</t>
+  </si>
+  <si>
+    <t>0.97 / 0.99 / 0.98</t>
+  </si>
+  <si>
+    <t>0.95 / 0.99 / 0.93</t>
+  </si>
+  <si>
+    <t>0.98 / 0.95 / 0.96</t>
+  </si>
+  <si>
+    <t>0.96 / 0.98 / 0.96</t>
+  </si>
+  <si>
+    <t>0.82 / 0.89 / 0.63</t>
+  </si>
+  <si>
+    <t>0.95 / 0.97 / 0.87</t>
+  </si>
+  <si>
+    <t>0.94 / 0.95 / 0.83</t>
+  </si>
+  <si>
+    <t>0.95 / 0.97 / 0.85</t>
+  </si>
+  <si>
+    <t>0.97 / 0.99 / 0.92</t>
+  </si>
+  <si>
+    <t>0.96 / 0.98 / 0.93</t>
+  </si>
+  <si>
+    <t>0.95 / 0.96 / 0.93</t>
+  </si>
+  <si>
+    <t>0.98 / 0.98 / 0.97</t>
+  </si>
+  <si>
+    <t>0.93 / 0.94 / 0.87</t>
+  </si>
+  <si>
+    <t>0.98 / 0.98 / 0.96</t>
+  </si>
+  <si>
+    <t>0.96 / 0.96 / 0.86</t>
+  </si>
+  <si>
+    <t>0.98 / 0.99 / 0.94</t>
+  </si>
+  <si>
+    <t>0.99 / 1.00 / 0.78</t>
+  </si>
+  <si>
+    <t>1.00 / 1.00 / 0.90</t>
+  </si>
+  <si>
+    <t>1.00 / 0.99 / 0.99</t>
+  </si>
+  <si>
+    <t>0.90 / 0.96 / 0.90</t>
+  </si>
+  <si>
+    <t>0.86 / 0.97 / 0.80</t>
+  </si>
+  <si>
+    <t>0.87 / 0.88 / 0.60</t>
+  </si>
+  <si>
+    <t>0.90 / 0.94 / 0.82</t>
+  </si>
+  <si>
+    <t>Watersheds used to train and validate general model</t>
   </si>
 </sst>
 </file>
@@ -339,7 +425,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +444,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -573,12 +665,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,6 +690,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,27 +714,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -932,46 +1022,55 @@
     <col min="7" max="7" width="15.265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.53125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="7.1328125" customWidth="1"/>
-    <col min="24" max="24" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="22.46484375" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="7.1328125" customWidth="1"/>
+    <col min="27" max="27" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="7.1328125" customWidth="1"/>
+    <col min="31" max="31" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-    </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+    </row>
+    <row r="2" spans="1:41" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -987,13 +1086,13 @@
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="38"/>
+      <c r="F2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="36"/>
       <c r="I2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1003,66 +1102,81 @@
       <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="38" t="s">
+      <c r="S2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="W2" s="10" t="s">
+      <c r="U2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AD2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="AF2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AI2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AK2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AL2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AM2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AN2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1095,66 +1209,83 @@
       <c r="K3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="37" t="str">
+        <f>_xlfn.CONCAT(ROUND(O3,2), " / ", ROUND(R3,2), " / ", ROUND(X3,2))</f>
+        <v>0.94 / 0.98 / 0.99</v>
+      </c>
+      <c r="M3" s="37" t="str">
+        <f>_xlfn.CONCAT(ROUND(P3,2), " / ", ROUND(S3,2), " / ", ROUND(Y3,2))</f>
+        <v>0.97 / 0.99 / 0.98</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37">
         <v>0.93875275825928006</v>
       </c>
-      <c r="M3" s="7">
+      <c r="P3" s="37">
         <v>0.97086140299270385</v>
       </c>
-      <c r="N3" s="35">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37">
         <v>0.98181830318540619</v>
       </c>
-      <c r="O3" s="7">
+      <c r="S3" s="37">
         <v>0.99144889973947037</v>
       </c>
-      <c r="P3" s="39">
-        <f>N3-L3</f>
-        <v>4.3065544926126131E-2</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>O3-M3</f>
-        <v>2.058749674676652E-2</v>
-      </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="W3" s="26" t="s">
+      <c r="T3" s="37" t="e">
+        <f>R3-L3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U3" s="37" t="e">
+        <f>S3-M3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="54">
+        <v>0.99119772292102748</v>
+      </c>
+      <c r="Y3" s="55">
+        <v>0.98128858045083367</v>
+      </c>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AD3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="AE3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="AF3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AG3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AH3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AI3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AJ3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AK3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AL3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AM3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AN3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="53"/>
-    </row>
-    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AO3" s="44"/>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1187,66 +1318,83 @@
       <c r="K4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="37" t="str">
+        <f t="shared" ref="L4:M9" si="1">_xlfn.CONCAT(ROUND(O4,2), " / ", ROUND(R4,2), " / ", ROUND(X4,2))</f>
+        <v>0.86 / 0.97 / 0.8</v>
+      </c>
+      <c r="M4" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.95 / 0.99 / 0.93</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37">
         <v>0.85527191909436884</v>
       </c>
-      <c r="M4" s="7">
+      <c r="P4" s="37">
         <v>0.95217782856858935</v>
       </c>
-      <c r="N4" s="35">
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37">
         <v>0.96881252618660918</v>
       </c>
-      <c r="O4" s="7">
+      <c r="S4" s="37">
         <v>0.99056138113538594</v>
       </c>
-      <c r="P4" s="39">
-        <f t="shared" ref="P4:P10" si="1">N4-L4</f>
-        <v>0.11354060709224034</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" ref="Q4:Q10" si="2">O4-M4</f>
-        <v>3.8383552566796597E-2</v>
-      </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="W4" s="28" t="s">
+      <c r="T4" s="37" t="e">
+        <f t="shared" ref="T4:T10" si="2">R4-L4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4" s="37" t="e">
+        <f t="shared" ref="U4:U10" si="3">S4-M4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="54">
+        <v>0.80127471544678963</v>
+      </c>
+      <c r="Y4" s="55">
+        <v>0.93177209991244214</v>
+      </c>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AD4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="AE4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="AF4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="AG4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AH4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AI4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="29" t="s">
+      <c r="AJ4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="29" t="s">
+      <c r="AK4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="29" t="s">
+      <c r="AL4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="29" t="s">
+      <c r="AM4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="29" t="s">
+      <c r="AN4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="54"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AO4" s="45"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1279,66 +1427,83 @@
       <c r="K5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.98 / 0.95 / 0.96</v>
+      </c>
+      <c r="M5" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>1 / 0.99 / 0.99</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37">
         <v>0.9782834573146677</v>
       </c>
-      <c r="M5" s="7">
+      <c r="P5" s="37">
         <v>0.99636619663442094</v>
       </c>
-      <c r="N5" s="35">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37">
         <v>0.95288993652882892</v>
       </c>
-      <c r="O5" s="7">
+      <c r="S5" s="37">
         <v>0.99177039587785087</v>
       </c>
-      <c r="P5" s="39">
-        <f t="shared" si="1"/>
-        <v>-2.5393520785838786E-2</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="T5" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>-4.5958007565700676E-3</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="W5" s="28" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="54">
+        <v>0.9583217745348841</v>
+      </c>
+      <c r="Y5" s="55">
+        <v>0.99309628190415389</v>
+      </c>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AD5" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="AE5" s="29" t="s">
         <v>44</v>
       </c>
       <c r="AF5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AG5" s="29" t="s">
+      <c r="AL5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="55"/>
-    </row>
-    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AO5" s="46"/>
+    </row>
+    <row r="6" spans="1:41" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1371,69 +1536,86 @@
       <c r="K6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.9 / 0.96 / 0.9</v>
+      </c>
+      <c r="M6" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.96 / 0.98 / 0.96</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37">
         <v>0.90011876866415641</v>
       </c>
-      <c r="M6" s="7">
+      <c r="P6" s="37">
         <v>0.9562475789063356</v>
       </c>
-      <c r="N6" s="35">
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37">
         <v>0.96103183180158014</v>
       </c>
-      <c r="O6" s="7">
+      <c r="S6" s="37">
         <v>0.98345219889533231</v>
       </c>
-      <c r="P6" s="39">
-        <f t="shared" si="1"/>
-        <v>6.0913063137423729E-2</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="T6" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>2.7204619988996703E-2</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="W6" s="28" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="54">
+        <v>0.90291555628277387</v>
+      </c>
+      <c r="Y6" s="55">
+        <v>0.95771256128879345</v>
+      </c>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AD6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="31">
+      <c r="AE6" s="31">
         <v>25.325230000000001</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="AF6" s="31">
         <v>50.654502000000001</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="AG6" s="31">
         <v>66.101353000000003</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AH6" s="31">
         <v>161.12558999999999</v>
       </c>
-      <c r="AB6" s="31">
+      <c r="AI6" s="31">
         <v>79.98</v>
       </c>
-      <c r="AC6" s="31">
+      <c r="AJ6" s="31">
         <v>74.67</v>
       </c>
-      <c r="AD6" s="31">
+      <c r="AK6" s="31">
         <v>136.83000000000001</v>
       </c>
-      <c r="AE6" s="31">
+      <c r="AL6" s="31">
         <v>61.2</v>
       </c>
-      <c r="AF6" s="31">
+      <c r="AM6" s="31">
         <v>55.5</v>
       </c>
-      <c r="AG6" s="31">
+      <c r="AN6" s="31">
         <v>77.8</v>
       </c>
-      <c r="AH6" s="32">
-        <f>SUM(X6:AG6)</f>
+      <c r="AO6" s="32">
+        <f>SUM(AE6:AN6)</f>
         <v>789.18667500000004</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1466,69 +1648,86 @@
       <c r="K7" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.82 / 0.89 / 0.63</v>
+      </c>
+      <c r="M7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.95 / 0.97 / 0.87</v>
+      </c>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37">
         <v>0.82291528599831942</v>
       </c>
-      <c r="M7" s="7">
+      <c r="P7" s="37">
         <v>0.94764004959103076</v>
       </c>
-      <c r="N7" s="35">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37">
         <v>0.89093631761198533</v>
       </c>
-      <c r="O7" s="7">
+      <c r="S7" s="37">
         <v>0.96962639571491238</v>
       </c>
-      <c r="P7" s="39">
-        <f t="shared" si="1"/>
-        <v>6.8021031613665905E-2</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="T7" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>2.1986346123881617E-2</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="W7" s="28" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="54">
+        <v>0.62639814968652929</v>
+      </c>
+      <c r="Y7" s="55">
+        <v>0.86957691186636332</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AD7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="31">
+      <c r="AE7" s="31">
         <v>1.3013134279999998</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="AF7" s="31">
         <v>8.753083504000001</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="AG7" s="31">
         <v>7.6548092829999996</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AH7" s="31">
         <v>10.272564488</v>
       </c>
-      <c r="AB7" s="31">
+      <c r="AI7" s="31">
         <v>10.379604695999999</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AJ7" s="31">
         <v>8.0621626640000006</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AK7" s="31">
         <v>13.182848910000001</v>
       </c>
-      <c r="AE7" s="31">
+      <c r="AL7" s="31">
         <v>4</v>
       </c>
-      <c r="AF7" s="31">
+      <c r="AM7" s="31">
         <v>3.2</v>
       </c>
-      <c r="AG7" s="31">
+      <c r="AN7" s="31">
         <v>6.1</v>
       </c>
-      <c r="AH7" s="32">
-        <f>SUM(X7:AG7)</f>
+      <c r="AO7" s="32">
+        <f>SUM(AE7:AN7)</f>
         <v>72.906386972999996</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1561,79 +1760,96 @@
       <c r="K8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.87 / 0.88 / 0.6</v>
+      </c>
+      <c r="M8" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.94 / 0.95 / 0.83</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37">
         <v>0.87004186833979424</v>
       </c>
-      <c r="M8" s="7">
+      <c r="P8" s="37">
         <v>0.94261626903519602</v>
       </c>
-      <c r="N8" s="35">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37">
         <v>0.88495888975049131</v>
       </c>
-      <c r="O8" s="7">
+      <c r="S8" s="37">
         <v>0.94870415447453615</v>
       </c>
-      <c r="P8" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4917021410697062E-2</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="T8" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>6.0878854393401349E-3</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="W8" s="28" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="54">
+        <v>0.59763404119850838</v>
+      </c>
+      <c r="Y8" s="55">
+        <v>0.83149065207925132</v>
+      </c>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AD8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="33">
-        <f t="shared" ref="X8:AH8" si="3">X7/X6</f>
+      <c r="AE8" s="33">
+        <f t="shared" ref="AE8:AO8" si="4">AE7/AE6</f>
         <v>5.1384071457593862E-2</v>
       </c>
-      <c r="Y8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AF8" s="33">
+        <f t="shared" si="4"/>
         <v>0.17279971489997081</v>
       </c>
-      <c r="Z8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AG8" s="33">
+        <f t="shared" si="4"/>
         <v>0.11580412405476782</v>
       </c>
-      <c r="AA8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AH8" s="33">
+        <f t="shared" si="4"/>
         <v>6.3755015500641457E-2</v>
       </c>
-      <c r="AB8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AI8" s="33">
+        <f t="shared" si="4"/>
         <v>0.12977750307576894</v>
       </c>
-      <c r="AC8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AJ8" s="33">
+        <f t="shared" si="4"/>
         <v>0.1079705727065756</v>
       </c>
-      <c r="AD8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AK8" s="33">
+        <f t="shared" si="4"/>
         <v>9.6344726375794776E-2</v>
       </c>
-      <c r="AE8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AL8" s="33">
+        <f t="shared" si="4"/>
         <v>6.535947712418301E-2</v>
       </c>
-      <c r="AF8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AM8" s="33">
+        <f t="shared" si="4"/>
         <v>5.7657657657657659E-2</v>
       </c>
-      <c r="AG8" s="33">
-        <f t="shared" si="3"/>
+      <c r="AN8" s="33">
+        <f t="shared" si="4"/>
         <v>7.8406169665809766E-2</v>
       </c>
-      <c r="AH8" s="34">
-        <f t="shared" si="3"/>
+      <c r="AO8" s="34">
+        <f t="shared" si="4"/>
         <v>9.238167506186036E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -1666,75 +1882,92 @@
       <c r="K9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.95 / 0.97 / 0.85</v>
+      </c>
+      <c r="M9" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>0.97 / 0.99 / 0.92</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37">
         <v>0.94511500125771386</v>
       </c>
-      <c r="M9" s="7">
+      <c r="P9" s="37">
         <v>0.97292131251991076</v>
       </c>
-      <c r="N9" s="35">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>0.97190857345359039</v>
       </c>
-      <c r="O9" s="7">
+      <c r="S9" s="37">
         <v>0.98619277776067393</v>
       </c>
-      <c r="P9" s="39">
-        <f t="shared" si="1"/>
-        <v>2.6793572195876525E-2</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="T9" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>1.3271465240763169E-2</v>
-      </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="W9" s="51" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="54">
+        <v>0.84750063126437758</v>
+      </c>
+      <c r="Y9" s="55">
+        <v>0.9243772509292606</v>
+      </c>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AD9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="49">
+      <c r="AE9" s="47">
         <v>0.80537810318818359</v>
       </c>
-      <c r="Y9" s="49">
+      <c r="AF9" s="47">
         <v>0.92826913714348602</v>
       </c>
-      <c r="Z9" s="49">
+      <c r="AG9" s="47">
         <v>0.9060683445495058</v>
       </c>
-      <c r="AA9" s="49">
+      <c r="AH9" s="47">
         <v>0.90865247914043556</v>
       </c>
-      <c r="AB9" s="49">
+      <c r="AI9" s="47">
         <v>0.94595956312855456</v>
       </c>
-      <c r="AC9" s="49">
+      <c r="AJ9" s="47">
         <v>0.94008347122006419</v>
       </c>
-      <c r="AD9" s="49">
+      <c r="AK9" s="47">
         <v>0.867452289883756</v>
       </c>
-      <c r="AE9" s="49">
+      <c r="AL9" s="47">
         <v>0.79310526891699606</v>
       </c>
-      <c r="AF9" s="49">
+      <c r="AM9" s="47">
         <v>0.87733657269071508</v>
       </c>
-      <c r="AG9" s="49">
+      <c r="AN9" s="47">
         <v>0.94733020249381461</v>
       </c>
-      <c r="AH9" s="34" t="str">
-        <f>_xlfn.CONCAT(ROUND(AVERAGE(X9:AD10)*100,0), "% (Trained)")</f>
+      <c r="AO9" s="34" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(AE9:AK10)*100,0), "% (Trained)")</f>
         <v>90% (Trained)</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="6">
         <f>SUM(E3:E9)</f>
         <v>594.68667500000004</v>
@@ -1744,87 +1977,97 @@
         <v>59.606386972999999</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" ref="G10" si="4">F10/E10</f>
+        <f t="shared" ref="G10" si="5">F10/E10</f>
         <v>0.10023158325012074</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="36">
-        <f>AVERAGE(L3:L9)</f>
-        <v>0.90149986556118578</v>
-      </c>
-      <c r="M10" s="8">
-        <f>AVERAGE(M3:M9)</f>
-        <v>0.9626900911783125</v>
-      </c>
-      <c r="N10" s="36">
-        <f>AVERAGE(N3:N9)</f>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="38" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(O3:O9),2), " / ", ROUND(AVERAGE(R3:R9),2), " / ", ROUND(AVERAGE(X3:X9),2))</f>
+        <v>0.9 / 0.94 / 0.82</v>
+      </c>
+      <c r="M10" s="38" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(P3:P9),2), " / ", ROUND(AVERAGE(S3:S9),2), " / ", ROUND(AVERAGE(Y3:Y9),2))</f>
+        <v>0.96 / 0.98 / 0.93</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38">
+        <f>AVERAGE(R3:R9)</f>
         <v>0.94462233978835586</v>
       </c>
-      <c r="O10" s="8">
-        <f>AVERAGE(O3:O9)</f>
+      <c r="S10" s="38">
+        <f>AVERAGE(S3:S9)</f>
         <v>0.98025088622830892</v>
       </c>
-      <c r="P10" s="40">
-        <f t="shared" si="1"/>
-        <v>4.3122474227170082E-2</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="T10" s="38" t="e">
         <f t="shared" si="2"/>
-        <v>1.7560795049996414E-2</v>
-      </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="34" t="str">
-        <f>_xlfn.CONCAT(ROUND(AVERAGE(AE9:AG10)*100,0), "% (Naive)")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="34" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(AL9:AN10)*100,0), "% (Naive)")</f>
         <v>87% (Naive)</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
@@ -1857,32 +2100,49 @@
       <c r="K12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="37" t="str">
+        <f>_xlfn.CONCAT(ROUND(O12,2), " / ", ROUND(R12,2), " / ", ROUND(X12,2))</f>
+        <v>0.95 / 0.96 / 0.93</v>
+      </c>
+      <c r="M12" s="37" t="str">
+        <f>_xlfn.CONCAT(ROUND(P12,2), " / ", ROUND(S12,2), " / ", ROUND(Y12,2))</f>
+        <v>0.98 / 0.98 / 0.97</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37">
         <v>0.95147859016390013</v>
       </c>
-      <c r="M12" s="7">
+      <c r="P12" s="37">
         <v>0.97669708977927694</v>
       </c>
-      <c r="N12" s="35">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37">
         <v>0.95533607527090736</v>
       </c>
-      <c r="O12" s="7">
+      <c r="S12" s="37">
         <v>0.97846829014910219</v>
       </c>
-      <c r="P12" s="39">
-        <f t="shared" ref="P12:P15" si="5">N12-L12</f>
-        <v>3.8574851070072302E-3</v>
-      </c>
-      <c r="Q12" s="7">
-        <f t="shared" ref="Q12:Q15" si="6">O12-M12</f>
-        <v>1.7712003698252543E-3</v>
-      </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-    </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="T12" s="37" t="e">
+        <f t="shared" ref="T12:T15" si="6">R12-L12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="37" t="e">
+        <f t="shared" ref="U12:U15" si="7">S12-M12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="54">
+        <v>0.92949810139789513</v>
+      </c>
+      <c r="Y12" s="55">
+        <v>0.96590014972789529</v>
+      </c>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+    </row>
+    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
@@ -1915,44 +2175,61 @@
       <c r="K13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="37" t="str">
+        <f t="shared" ref="L13:L14" si="8">_xlfn.CONCAT(ROUND(O13,2), " / ", ROUND(R13,2), " / ", ROUND(X13,2))</f>
+        <v>0.93 / 0.94 / 0.87</v>
+      </c>
+      <c r="M13" s="37" t="str">
+        <f t="shared" ref="M13:M14" si="9">_xlfn.CONCAT(ROUND(P13,2), " / ", ROUND(S13,2), " / ", ROUND(Y13,2))</f>
+        <v>0.98 / 0.98 / 0.96</v>
+      </c>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37">
         <v>0.92904096792641677</v>
       </c>
-      <c r="M13" s="7">
+      <c r="P13" s="37">
         <v>0.97962714723579869</v>
       </c>
-      <c r="N13" s="35">
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37">
         <v>0.9362364711891662</v>
       </c>
-      <c r="O13" s="7">
+      <c r="S13" s="37">
         <v>0.9818220858989376</v>
       </c>
-      <c r="P13" s="39">
-        <f t="shared" si="5"/>
-        <v>7.1955032627494253E-3</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="T13" s="37" t="e">
         <f t="shared" si="6"/>
-        <v>2.1949386631389123E-3</v>
-      </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="37" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="54">
+        <v>0.87336230518260971</v>
+      </c>
+      <c r="Y13" s="55">
+        <v>0.96239343808607292</v>
+      </c>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
@@ -1985,38 +2262,55 @@
       <c r="K14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>0.99 / 1 / 0.78</v>
+      </c>
+      <c r="M14" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>1 / 1 / 0.9</v>
+      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37">
         <v>0.99458525951233445</v>
       </c>
-      <c r="M14" s="7">
+      <c r="P14" s="37">
         <v>0.99762924498477956</v>
       </c>
-      <c r="N14" s="35">
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37">
         <v>0.99538719465017911</v>
       </c>
-      <c r="O14" s="7">
+      <c r="S14" s="37">
         <v>0.99798100114666788</v>
       </c>
-      <c r="P14" s="39">
-        <f t="shared" si="5"/>
-        <v>8.0193513784465598E-4</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="T14" s="37" t="e">
         <f t="shared" si="6"/>
-        <v>3.5175616188831693E-4</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" s="46" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U14" s="37" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="54">
+        <v>0.78119969109635601</v>
+      </c>
+      <c r="Y14" s="55">
+        <v>0.89641876903627171</v>
+      </c>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A15" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6">
         <f>SUM(E12:E14)</f>
         <v>194.48000000000002</v>
@@ -2026,45 +2320,52 @@
         <v>13.30851092804</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15" si="7">F15/E15</f>
+        <f t="shared" ref="G15" si="10">F15/E15</f>
         <v>6.8431257342863011E-2</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="36">
-        <f>AVERAGE(L12:L14)</f>
-        <v>0.95836827253421708</v>
-      </c>
-      <c r="M15" s="8">
-        <f>AVERAGE(M12:M14)</f>
-        <v>0.98465116066661829</v>
-      </c>
-      <c r="N15" s="36">
-        <f>AVERAGE(N12:N14)</f>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="38" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(O12:O14),2), " / ", ROUND(AVERAGE(R12:R14),2), " / ", ROUND(AVERAGE(X12:X14),2))</f>
+        <v>0.96 / 0.96 / 0.86</v>
+      </c>
+      <c r="M15" s="38" t="str">
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(P12:P14),2), " / ", ROUND(AVERAGE(S12:S14),2), " / ", ROUND(AVERAGE(Y12:Y14),2))</f>
+        <v>0.98 / 0.99 / 0.94</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38">
+        <f>AVERAGE(R12:R14)</f>
         <v>0.96231991370341763</v>
       </c>
-      <c r="O15" s="8">
-        <f>AVERAGE(O12:O14)</f>
+      <c r="S15" s="38">
+        <f>AVERAGE(S12:S14)</f>
         <v>0.98609045906490256</v>
       </c>
-      <c r="P15" s="40">
-        <f t="shared" si="5"/>
-        <v>3.9516411692005482E-3</v>
-      </c>
-      <c r="Q15" s="8">
+      <c r="T15" s="38" t="e">
         <f t="shared" si="6"/>
-        <v>1.4392983982842722E-3</v>
-      </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="38" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
@@ -2073,7 +2374,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2082,7 +2383,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2091,39 +2392,273 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E23" s="37"/>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I19" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="5:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="E23" s="35"/>
+      <c r="I23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I28" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I29" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="I32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I33" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
     <sortCondition ref="A9"/>
   </sortState>
-  <mergeCells count="20">
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="I1:Q1"/>
+  <mergeCells count="24">
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I11:Q11"/>
     <mergeCell ref="A11:G11"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="X3:AG3 A8:A9 A4:A6 A3 A7 A12:A14 I3:I8 I12:I14 I9" numberStoredAsText="1"/>
+    <ignoredError sqref="AE3:AN3 A8:A9 A4:A6 A3 A7 A12:A14 I3:I8 I12:I14 I9 I21:M26 I28:M32 I27 K27:M27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/model_paper/study_areas_pretty.xlsx
+++ b/model_paper/study_areas_pretty.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F44D3-57C9-4BD3-927A-7B80B02C3CEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C8934-917A-884A-8F3A-ADFD3B56704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="10160" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -307,10 +310,6 @@
 area (sq km)</t>
   </si>
   <si>
-    <t>Fraction manually
-classified</t>
-  </si>
-  <si>
     <t>Accuracy
 (specific)</t>
   </si>
@@ -414,6 +413,10 @@
   </si>
   <si>
     <t>Watersheds used to train and validate general model</t>
+  </si>
+  <si>
+    <t>Manually classified
+percentage</t>
   </si>
 </sst>
 </file>
@@ -690,40 +693,40 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,61 +1010,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.53125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="22.46484375" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="7.1328125" customWidth="1"/>
-    <col min="27" max="27" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="7.1328125" customWidth="1"/>
-    <col min="31" max="31" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="22.5" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="7.1640625" customWidth="1"/>
+    <col min="27" max="27" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="7.1640625" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
       <c r="V1" s="39"/>
       <c r="W1" s="39"/>
       <c r="X1" s="39"/>
@@ -1070,7 +1073,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="10" t="s">
@@ -1103,38 +1106,38 @@
         <v>1</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="36"/>
       <c r="O2" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>95</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>96</v>
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36" t="s">
         <v>85</v>
       </c>
       <c r="S2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
       <c r="X2" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="40" t="s">
         <v>93</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>94</v>
       </c>
       <c r="Z2" s="40"/>
       <c r="AA2" s="40"/>
@@ -1176,7 +1179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1241,10 +1244,10 @@
       </c>
       <c r="V3" s="41"/>
       <c r="W3" s="41"/>
-      <c r="X3" s="54">
+      <c r="X3" s="44">
         <v>0.99119772292102748</v>
       </c>
-      <c r="Y3" s="55">
+      <c r="Y3" s="45">
         <v>0.98128858045083367</v>
       </c>
       <c r="Z3" s="41"/>
@@ -1283,9 +1286,9 @@
       <c r="AN3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="44"/>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AO3" s="48"/>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1350,10 +1353,10 @@
       </c>
       <c r="V4" s="41"/>
       <c r="W4" s="41"/>
-      <c r="X4" s="54">
+      <c r="X4" s="44">
         <v>0.80127471544678963</v>
       </c>
-      <c r="Y4" s="55">
+      <c r="Y4" s="45">
         <v>0.93177209991244214</v>
       </c>
       <c r="Z4" s="41"/>
@@ -1392,9 +1395,9 @@
       <c r="AN4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AO4" s="45"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AO4" s="49"/>
+    </row>
+    <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1459,10 +1462,10 @@
       </c>
       <c r="V5" s="41"/>
       <c r="W5" s="41"/>
-      <c r="X5" s="54">
+      <c r="X5" s="44">
         <v>0.9583217745348841</v>
       </c>
-      <c r="Y5" s="55">
+      <c r="Y5" s="45">
         <v>0.99309628190415389</v>
       </c>
       <c r="Z5" s="41"/>
@@ -1501,9 +1504,9 @@
       <c r="AN5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="46"/>
-    </row>
-    <row r="6" spans="1:41" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AO5" s="50"/>
+    </row>
+    <row r="6" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1568,10 +1571,10 @@
       </c>
       <c r="V6" s="41"/>
       <c r="W6" s="41"/>
-      <c r="X6" s="54">
+      <c r="X6" s="44">
         <v>0.90291555628277387</v>
       </c>
-      <c r="Y6" s="55">
+      <c r="Y6" s="45">
         <v>0.95771256128879345</v>
       </c>
       <c r="Z6" s="41"/>
@@ -1615,7 +1618,7 @@
         <v>789.18667500000004</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1680,10 +1683,10 @@
       </c>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
-      <c r="X7" s="54">
+      <c r="X7" s="44">
         <v>0.62639814968652929</v>
       </c>
-      <c r="Y7" s="55">
+      <c r="Y7" s="45">
         <v>0.86957691186636332</v>
       </c>
       <c r="Z7" s="41"/>
@@ -1727,7 +1730,7 @@
         <v>72.906386972999996</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1792,10 +1795,10 @@
       </c>
       <c r="V8" s="41"/>
       <c r="W8" s="41"/>
-      <c r="X8" s="54">
+      <c r="X8" s="44">
         <v>0.59763404119850838</v>
       </c>
-      <c r="Y8" s="55">
+      <c r="Y8" s="45">
         <v>0.83149065207925132</v>
       </c>
       <c r="Z8" s="41"/>
@@ -1849,7 +1852,7 @@
         <v>9.238167506186036E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -1914,46 +1917,46 @@
       </c>
       <c r="V9" s="41"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="54">
+      <c r="X9" s="44">
         <v>0.84750063126437758</v>
       </c>
-      <c r="Y9" s="55">
+      <c r="Y9" s="45">
         <v>0.9243772509292606</v>
       </c>
       <c r="Z9" s="41"/>
       <c r="AA9" s="41"/>
       <c r="AB9" s="41"/>
-      <c r="AD9" s="52" t="s">
+      <c r="AD9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AE9" s="47">
+      <c r="AE9" s="51">
         <v>0.80537810318818359</v>
       </c>
-      <c r="AF9" s="47">
+      <c r="AF9" s="51">
         <v>0.92826913714348602</v>
       </c>
-      <c r="AG9" s="47">
+      <c r="AG9" s="51">
         <v>0.9060683445495058</v>
       </c>
-      <c r="AH9" s="47">
+      <c r="AH9" s="51">
         <v>0.90865247914043556</v>
       </c>
-      <c r="AI9" s="47">
+      <c r="AI9" s="51">
         <v>0.94595956312855456</v>
       </c>
-      <c r="AJ9" s="47">
+      <c r="AJ9" s="51">
         <v>0.94008347122006419</v>
       </c>
-      <c r="AK9" s="47">
+      <c r="AK9" s="51">
         <v>0.867452289883756</v>
       </c>
-      <c r="AL9" s="47">
+      <c r="AL9" s="51">
         <v>0.79310526891699606</v>
       </c>
-      <c r="AM9" s="47">
+      <c r="AM9" s="51">
         <v>0.87733657269071508</v>
       </c>
-      <c r="AN9" s="47">
+      <c r="AN9" s="51">
         <v>0.94733020249381461</v>
       </c>
       <c r="AO9" s="34" t="str">
@@ -1961,13 +1964,13 @@
         <v>90% (Trained)</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="6">
         <f>SUM(E3:E9)</f>
         <v>594.68667500000004</v>
@@ -1981,18 +1984,18 @@
         <v>0.10023158325012074</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="38" t="str">
         <f>_xlfn.CONCAT(ROUND(AVERAGE(O3:O9),2), " / ", ROUND(AVERAGE(R3:R9),2), " / ", ROUND(AVERAGE(X3:X9),2))</f>
         <v>0.9 / 0.94 / 0.82</v>
       </c>
       <c r="M10" s="38" t="str">
-        <f>_xlfn.CONCAT(ROUND(AVERAGE(P3:P9),2), " / ", ROUND(AVERAGE(S3:S9),2), " / ", ROUND(AVERAGE(Y3:Y9),2))</f>
-        <v>0.96 / 0.98 / 0.93</v>
+        <f>_xlfn.CONCAT(ROUND(AVERAGE(P3:P9),5), " / ", ROUND(AVERAGE(S3:S9),2), " / ", ROUND(AVERAGE(Y3:Y9),2))</f>
+        <v>0.96269 / 0.98 / 0.93</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
@@ -2019,55 +2022,55 @@
       <c r="Z10" s="42"/>
       <c r="AA10" s="42"/>
       <c r="AB10" s="42"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
       <c r="AO10" s="34" t="str">
         <f>_xlfn.CONCAT(ROUND(AVERAGE(AL9:AN10)*100,0), "% (Naive)")</f>
         <v>87% (Naive)</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="57"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="47"/>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
@@ -2132,17 +2135,17 @@
       </c>
       <c r="V12" s="41"/>
       <c r="W12" s="41"/>
-      <c r="X12" s="54">
+      <c r="X12" s="44">
         <v>0.92949810139789513</v>
       </c>
-      <c r="Y12" s="55">
+      <c r="Y12" s="45">
         <v>0.96590014972789529</v>
       </c>
       <c r="Z12" s="41"/>
       <c r="AA12" s="41"/>
       <c r="AB12" s="41"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
@@ -2207,10 +2210,10 @@
       </c>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
-      <c r="X13" s="54">
+      <c r="X13" s="44">
         <v>0.87336230518260971</v>
       </c>
-      <c r="Y13" s="55">
+      <c r="Y13" s="45">
         <v>0.96239343808607292</v>
       </c>
       <c r="Z13" s="41"/>
@@ -2229,7 +2232,7 @@
       <c r="AN13"/>
       <c r="AO13"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
@@ -2294,23 +2297,23 @@
       </c>
       <c r="V14" s="41"/>
       <c r="W14" s="41"/>
-      <c r="X14" s="54">
+      <c r="X14" s="44">
         <v>0.78119969109635601</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="Y14" s="45">
         <v>0.89641876903627171</v>
       </c>
       <c r="Z14" s="41"/>
       <c r="AA14" s="41"/>
       <c r="AB14" s="41"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="6">
         <f>SUM(E12:E14)</f>
         <v>194.48000000000002</v>
@@ -2324,11 +2327,11 @@
         <v>6.8431257342863011E-2</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="38" t="str">
         <f>_xlfn.CONCAT(ROUND(AVERAGE(O12:O14),2), " / ", ROUND(AVERAGE(R12:R14),2), " / ", ROUND(AVERAGE(X12:X14),2))</f>
         <v>0.96 / 0.96 / 0.86</v>
@@ -2365,7 +2368,7 @@
       <c r="AA15" s="42"/>
       <c r="AB15" s="42"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
@@ -2374,7 +2377,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2383,7 +2386,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2392,16 +2395,16 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="I19" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-    </row>
-    <row r="20" spans="5:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I19" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+    </row>
+    <row r="20" spans="5:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="10" t="s">
         <v>4</v>
       </c>
@@ -2412,13 +2415,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
       <c r="I21" s="13" t="s">
         <v>18</v>
       </c>
@@ -2429,13 +2432,13 @@
         <v>14</v>
       </c>
       <c r="L21" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="M21" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="5:13" ht="32" x14ac:dyDescent="0.2">
       <c r="I22" s="13" t="s">
         <v>22</v>
       </c>
@@ -2446,13 +2449,13 @@
         <v>23</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E23" s="35"/>
       <c r="I23" s="13" t="s">
         <v>8</v>
@@ -2464,13 +2467,13 @@
         <v>81</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" ht="28.5" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" ht="32" x14ac:dyDescent="0.2">
       <c r="I24" s="13" t="s">
         <v>15</v>
       </c>
@@ -2481,13 +2484,13 @@
         <v>80</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.2">
       <c r="I25" s="13" t="s">
         <v>11</v>
       </c>
@@ -2498,13 +2501,13 @@
         <v>83</v>
       </c>
       <c r="L25" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="M25" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.2">
       <c r="I26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2515,13 +2518,13 @@
         <v>84</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" ht="42.75" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" ht="32" x14ac:dyDescent="0.2">
       <c r="I27" s="13" t="s">
         <v>24</v>
       </c>
@@ -2532,35 +2535,35 @@
         <v>5</v>
       </c>
       <c r="L27" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="37" t="s">
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I28" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="I28" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="I29" s="49" t="s">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I29" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-    </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.45">
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.2">
       <c r="I30" s="13" t="s">
         <v>56</v>
       </c>
@@ -2571,13 +2574,13 @@
         <v>58</v>
       </c>
       <c r="L30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="M30" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
       <c r="I31" s="13" t="s">
         <v>59</v>
       </c>
@@ -2588,13 +2591,13 @@
         <v>60</v>
       </c>
       <c r="L31" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="M31" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.2">
       <c r="I32" s="13" t="s">
         <v>64</v>
       </c>
@@ -2605,23 +2608,23 @@
         <v>62</v>
       </c>
       <c r="L32" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I33" s="49" t="s">
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I33" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="38" t="s">
         <v>112</v>
-      </c>
-      <c r="M33" s="38" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2671,15 +2674,15 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.265625" customWidth="1"/>
-    <col min="2" max="5" width="13.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" customWidth="1"/>
-    <col min="7" max="8" width="13.265625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="101" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2738,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2762,7 +2765,7 @@
       </c>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2792,7 @@
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>594.68667500000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>59.606386972999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>0.10023158325012074</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
